--- a/01.Template d'import métiers/conformite_nouveau_parc.xlsx
+++ b/01.Template d'import métiers/conformite_nouveau_parc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfengroup.sharepoint.com/sites/EDFRE_DSIN_Outildegestiondesparcs-02-Conception/Shared Documents/02 - Conception/03 - Paramètrage/01.Template d'import métiers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfengroup.sharepoint.com/sites/EDFRE_DSIN_Outildegestiondesparcs-02-Conception/Shared Documents/02 - Conception/centralparc/01.Template d'import métiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{CDFEFCFF-FC98-480B-97E0-554C4942EBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD9EE031-1577-46B4-9D9E-2476B06D5951}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{CDFEFCFF-FC98-480B-97E0-554C4942EBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C46C37F-B9F8-42C1-BC5E-4E8BDC9D3299}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1605" yWindow="2880" windowWidth="27855" windowHeight="15885" xr2:uid="{DC83A6AF-F78B-4B80-B55E-FD56E9DA6656}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{DC83A6AF-F78B-4B80-B55E-FD56E9DA6656}"/>
   </bookViews>
   <sheets>
     <sheet name="Nouveau parc - Conformités" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="149">
   <si>
     <t>numeric</t>
   </si>
@@ -522,9 +522,6 @@
     <t>Milestone Based</t>
   </si>
   <si>
-    <t>Compliance Deadline</t>
-  </si>
-  <si>
     <t>Milestone Type</t>
   </si>
   <si>
@@ -661,13 +658,13 @@
     <t>Organisation de la Visite d'Inspection Commune</t>
   </si>
   <si>
-    <t>JONC</t>
-  </si>
-  <si>
     <t>JONC-ECP-METER001</t>
   </si>
   <si>
-    <t>09/11/20216</t>
+    <t xml:space="preserve">First task due date </t>
+  </si>
+  <si>
+    <t>ROUS</t>
   </si>
 </sst>
 </file>
@@ -793,6 +790,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1115,7 +1113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1191,7 +1189,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1258,6 +1255,58 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{10FF1A69-C701-4730-97D9-294FC374F6A2}"/>
   </cellStyles>
   <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1405,15 +1454,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1471,49 +1511,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1641,10 +1638,10 @@
     <tableColumn id="4" xr3:uid="{D881C044-33C1-4AF8-81B4-9C1FC9532CAD}" name="Type"/>
     <tableColumn id="5" xr3:uid="{FFE8D007-FB1D-432B-A82A-2AD0BB46A4A2}" name="Tags"/>
     <tableColumn id="6" xr3:uid="{FD599853-E14A-473E-81EC-0CDDB190C8AF}" name="Description"/>
-    <tableColumn id="7" xr3:uid="{63126255-2618-4881-AC1B-F42091505EC2}" name="Plant IDs" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{88A69E77-A616-44EC-AD19-294D88B83E62}" name="Locations">
+    <tableColumn id="7" xr3:uid="{63126255-2618-4881-AC1B-F42091505EC2}" name="Plant IDs" dataDxfId="31">
       <calculatedColumnFormula>$C$3</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{88A69E77-A616-44EC-AD19-294D88B83E62}" name="Locations"/>
     <tableColumn id="9" xr3:uid="{17FFAB4C-D8E9-47C1-9769-AE3BB16A42D2}" name="Portfolios Names"/>
     <tableColumn id="10" xr3:uid="{42C4637C-75FE-47A3-9335-DCC5F41D4000}" name="Contract"/>
     <tableColumn id="11" xr3:uid="{6A394A91-6D5C-4D76-B8AC-61B59E570021}" name="Responsibility">
@@ -1652,7 +1649,7 @@
     </tableColumn>
     <tableColumn id="12" xr3:uid="{4EF014A0-5372-4D14-B4AE-4B993BAFD7A2}" name="Escalation"/>
     <tableColumn id="13" xr3:uid="{BE303160-8C9F-4534-950A-495B7C73D0BC}" name="Milestone Based"/>
-    <tableColumn id="14" xr3:uid="{8E1ADDCA-B057-442C-B621-69850B702DCB}" name="Compliance Deadline" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{8E1ADDCA-B057-442C-B621-69850B702DCB}" name="First task due date " dataDxfId="30"/>
     <tableColumn id="15" xr3:uid="{6DD74D31-6DF0-4883-A799-6CE9F35C1068}" name="Milestone Type"/>
     <tableColumn id="16" xr3:uid="{C5AC37FB-6722-4004-9C22-9F29FB9DA27C}" name="Milestone Deadline (days)"/>
     <tableColumn id="17" xr3:uid="{7F3509FE-EE34-43D4-BB1D-05F6F562813D}" name="Milestone Deadline Type"/>
@@ -1676,54 +1673,54 @@
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{12E769D9-47DC-436E-BF44-C71CD215E24C}" name="Task ID" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{53D5D8A0-BDB0-4191-A533-B296B2A3B1FA}" name="Name" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{0EB7C9D0-3E33-4CEE-96E9-3AFE6F8C93DD}" name="Responsibility" dataDxfId="24">
-      <calculatedColumnFormula>$C$2</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{0EB7C9D0-3E33-4CEE-96E9-3AFE6F8C93DD}" name="Responsibility" dataDxfId="2">
+      <calculatedColumnFormula>$C$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8345A48E-E0B3-48E2-A8FA-583103E1529F}" name="Due date" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{040DE84B-CE9C-45AC-BE8B-B8AD9274A0F9}" name="Type" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{01CEDE35-085B-4CCC-960B-FEF200D5B606}" name="Priority" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{D0EACE1C-CC57-4299-AA8D-F81134EA9BF2}" name="Tags" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{D5EEAF96-3C15-4F71-BC9E-B5BE6D78BD16}" name="Latest update" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{226FFD03-4EE9-4B01-B476-6DEDC091B73E}" name="Internal deadline" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{460B68E0-D5F3-4EF5-A612-6E3C9EB75EAC}" name="Start date" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{65FCCA0B-7E5F-4A9B-9657-807C699921EB}" name="Status" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{894B747D-6D0B-4050-A133-B86FC39E38B1}" name="Date Closed" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{45A1BF67-117E-4D43-AC21-2248BC010E6B}" name="Notes" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{21731D72-A059-49CB-864D-53D2DABF46D2}" name="Plant identifier(s)" dataDxfId="13">
-      <calculatedColumnFormula>$C$4</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{8345A48E-E0B3-48E2-A8FA-583103E1529F}" name="Due date" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{040DE84B-CE9C-45AC-BE8B-B8AD9274A0F9}" name="Type" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{01CEDE35-085B-4CCC-960B-FEF200D5B606}" name="Priority" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{D0EACE1C-CC57-4299-AA8D-F81134EA9BF2}" name="Tags" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{D5EEAF96-3C15-4F71-BC9E-B5BE6D78BD16}" name="Latest update" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{226FFD03-4EE9-4B01-B476-6DEDC091B73E}" name="Internal deadline" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{460B68E0-D5F3-4EF5-A612-6E3C9EB75EAC}" name="Start date" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{65FCCA0B-7E5F-4A9B-9657-807C699921EB}" name="Status" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{894B747D-6D0B-4050-A133-B86FC39E38B1}" name="Date Closed" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{45A1BF67-117E-4D43-AC21-2248BC010E6B}" name="Notes" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{21731D72-A059-49CB-864D-53D2DABF46D2}" name="Plant identifier(s)" dataDxfId="3">
+      <calculatedColumnFormula>$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D4F23F11-4562-4980-9F51-734F156552E0}" name="Portfolios" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{353301B9-6A01-47D7-94CD-A45977B89633}" name="Compliance ID" dataDxfId="11">
+    <tableColumn id="15" xr3:uid="{D4F23F11-4562-4980-9F51-734F156552E0}" name="Portfolios" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{353301B9-6A01-47D7-94CD-A45977B89633}" name="Compliance ID" dataDxfId="15">
       <calculatedColumnFormula>$B$17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4E950C0E-0E77-4678-AEB7-3C35195AF7AD}" name="Event ID" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{529CBD13-B22C-43CD-95F4-DAA08CFEF4D3}" name="Project" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{114A0934-EBFF-457A-A082-007023FCF260}" name="Location Identifier" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{4E950C0E-0E77-4678-AEB7-3C35195AF7AD}" name="Event ID" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{529CBD13-B22C-43CD-95F4-DAA08CFEF4D3}" name="Project" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{114A0934-EBFF-457A-A082-007023FCF260}" name="Location Identifier" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F42CD00-6DC6-4AC8-9082-7702CB08BC29}" name="Table1" displayName="Table1" ref="A10:W18" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F42CD00-6DC6-4AC8-9082-7702CB08BC29}" name="Table1" displayName="Table1" ref="A10:W18" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A10:W18" xr:uid="{9F42CD00-6DC6-4AC8-9082-7702CB08BC29}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{FA408050-F68C-49D2-B27D-3CDBF4EB8CAC}" name="Task ID"/>
-    <tableColumn id="2" xr3:uid="{84032816-71B2-46A8-94D7-6027623863D3}" name="Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{492E9253-2FA4-436A-9E35-23B81A7B2B7C}" name="Responsibility" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{84032816-71B2-46A8-94D7-6027623863D3}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{492E9253-2FA4-436A-9E35-23B81A7B2B7C}" name="Responsibility" dataDxfId="8">
       <calculatedColumnFormula>$C$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9B4EA4E4-7311-4BD7-8F6E-D37E5613EFEB}" name="Due date" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{94DDFD46-40E3-4D1D-8F3B-E177295230CC}" name="Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9B4EA4E4-7311-4BD7-8F6E-D37E5613EFEB}" name="Due date" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{94DDFD46-40E3-4D1D-8F3B-E177295230CC}" name="Type" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{80222353-EBC9-4882-B704-BC81661D9198}" name="Priority"/>
     <tableColumn id="7" xr3:uid="{8FD93B93-8DB6-42BE-8BC6-F0A4F0D80353}" name="Tags"/>
     <tableColumn id="8" xr3:uid="{26AA8B1E-2BBA-4A21-B494-F070CE536589}" name="Latest update"/>
     <tableColumn id="9" xr3:uid="{BFF27B15-B917-4C1B-9C84-ACB363F62695}" name="Internal deadline"/>
-    <tableColumn id="10" xr3:uid="{6FAD7E6F-A1D4-4FDA-BBDD-7EF7E670D22D}" name="Start date" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6FAD7E6F-A1D4-4FDA-BBDD-7EF7E670D22D}" name="Start date" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{A09DDD00-BE55-4D1A-B7E4-58B4E36BE48A}" name="Status"/>
     <tableColumn id="12" xr3:uid="{B5EA9F9D-9C8B-4A6C-986E-AF719CE51702}" name="Date Closed"/>
     <tableColumn id="13" xr3:uid="{BB312EF7-21FF-4545-AB83-F310FD0DB4E5}" name="Notes"/>
-    <tableColumn id="14" xr3:uid="{E0F84E5E-3355-4AFA-9C62-D2384AD0C633}" name="Plant identifier(s)" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{E0F84E5E-3355-4AFA-9C62-D2384AD0C633}" name="Plant identifier(s)" dataDxfId="4">
       <calculatedColumnFormula>$C$1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{3A3C3A77-36C1-4FE6-8BD2-47EA7434469F}" name="Portfolios"/>
@@ -2042,8 +2039,8 @@
   </sheetPr>
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2097,10 +2094,10 @@
       <c r="W1" s="27"/>
     </row>
     <row r="2" spans="2:30" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="49"/>
+      <c r="B2" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="48"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -2124,10 +2121,10 @@
     </row>
     <row r="3" spans="2:30" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -2152,10 +2149,10 @@
     </row>
     <row r="4" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -2222,10 +2219,10 @@
     </row>
     <row r="6" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="33">
-        <v>42667</v>
+        <v>44713</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -2257,10 +2254,10 @@
     </row>
     <row r="7" spans="2:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>149</v>
+        <v>132</v>
+      </c>
+      <c r="C7" s="33">
+        <v>44927</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -2322,11 +2319,11 @@
       <c r="AD8" s="27"/>
     </row>
     <row r="9" spans="2:30" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>140</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>141</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -2468,22 +2465,22 @@
     </row>
     <row r="14" spans="2:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
         <v>122</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>124</v>
-      </c>
-      <c r="P14" t="s">
-        <v>125</v>
       </c>
       <c r="V14" t="s">
         <v>73</v>
       </c>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA14" t="s">
         <v>74</v>
@@ -2592,78 +2589,78 @@
         <v>101</v>
       </c>
       <c r="O16" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" t="s">
         <v>102</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>103</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>104</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>105</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>106</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>107</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>108</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>109</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>110</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>111</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>112</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>113</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>_xlfn.CONCAT($C$3, "-OR3")</f>
-        <v>JONC-OR3</v>
+        <v>ROUS-OR3</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
         <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" t="str">
+        <v>130</v>
+      </c>
+      <c r="H17" t="str">
         <f>$C$3</f>
-        <v>JONC</v>
+        <v>ROUS</v>
       </c>
       <c r="K17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" t="str">
         <f>$C$5</f>
         <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O17" s="19"/>
       <c r="P17" t="s">
@@ -2673,7 +2670,7 @@
         <v>10</v>
       </c>
       <c r="R17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S17">
         <v>10</v>
@@ -2682,55 +2679,55 @@
         <v>1</v>
       </c>
       <c r="X17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y17">
         <v>10</v>
       </c>
       <c r="Z17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" ref="B18" si="0">_xlfn.CONCAT($C$3, "-GA1")</f>
-        <v>JONC-GA1</v>
+        <v>ROUS-GA1</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" ref="I18:I20" si="1">$C$3</f>
-        <v>JONC</v>
+        <v>143</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ref="H18:H20" si="1">$C$3</f>
+        <v>ROUS</v>
       </c>
       <c r="L18" s="19" t="str">
         <f t="shared" ref="L18:L20" si="2">$C$5</f>
         <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O18" s="19"/>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>10</v>
       </c>
       <c r="R18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -2740,48 +2737,48 @@
       </c>
       <c r="V18" s="19"/>
       <c r="X18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y18">
         <v>10</v>
       </c>
       <c r="Z18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>_xlfn.CONCAT($C$3, "-PDP")</f>
-        <v>JONC-PDP</v>
+        <v>ROUS-PDP</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>ROUS</v>
+      </c>
+      <c r="K19" t="s">
         <v>118</v>
-      </c>
-      <c r="F19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>JONC</v>
-      </c>
-      <c r="K19" t="s">
-        <v>119</v>
       </c>
       <c r="L19" s="19" t="str">
         <f t="shared" si="2"/>
         <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="N19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O19" s="19">
         <v>45291</v>
@@ -2790,7 +2787,7 @@
         <v>15</v>
       </c>
       <c r="T19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -2800,45 +2797,45 @@
         <v>10</v>
       </c>
       <c r="X19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y19">
         <v>30</v>
       </c>
       <c r="Z19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>_xlfn.CONCAT($C$3, "-VIC")</f>
-        <v>JONC-VIC</v>
+        <v>ROUS-VIC</v>
       </c>
       <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" t="s">
-        <v>130</v>
-      </c>
       <c r="G20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" t="str">
+        <v>145</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>JONC</v>
+        <v>ROUS</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="2"/>
         <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="N20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O20" s="19">
         <v>45291</v>
@@ -2847,7 +2844,7 @@
         <v>30</v>
       </c>
       <c r="T20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -2856,13 +2853,13 @@
         <v>10</v>
       </c>
       <c r="X20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y20">
         <v>30</v>
       </c>
       <c r="Z20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.25">
@@ -2897,10 +2894,10 @@
       <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="2:34" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="46"/>
+      <c r="B23" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="45"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -3033,25 +3030,25 @@
       <c r="AH25" s="27"/>
     </row>
     <row r="26" spans="2:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="53" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="P26" s="53"/>
+      <c r="P26" s="52"/>
       <c r="Q26" s="3" t="s">
         <v>11</v>
       </c>
@@ -3073,35 +3070,35 @@
       <c r="AH26" s="27"/>
     </row>
     <row r="27" spans="2:34" ht="24.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="59" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="5"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="62" t="s">
+      <c r="L27" s="61" t="s">
         <v>19</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="64" t="s">
+      <c r="O27" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="64"/>
+      <c r="P27" s="63"/>
       <c r="Q27" s="9" t="s">
         <v>21</v>
       </c>
@@ -3123,19 +3120,19 @@
       <c r="AH27" s="27"/>
     </row>
     <row r="28" spans="2:34" ht="48.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="5"/>
       <c r="K28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="63"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="9"/>
       <c r="N28" s="5"/>
       <c r="O28" s="14" t="s">
@@ -3240,13 +3237,13 @@
       <c r="C30" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="41">
-        <f t="shared" ref="D30:D37" si="3">$C$2</f>
-        <v>0</v>
+      <c r="D30" s="41" t="str">
+        <f t="shared" ref="D30:D37" si="3">$C$5</f>
+        <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="E30" s="43">
         <f>$C$6</f>
-        <v>42667</v>
+        <v>44713</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>69</v>
@@ -3257,20 +3254,20 @@
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
-      <c r="K30" s="44"/>
+      <c r="K30" s="43"/>
       <c r="L30" s="41" t="s">
         <v>47</v>
       </c>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
       <c r="O30" s="41" t="str">
-        <f t="shared" ref="O30:O37" si="4">$C$4</f>
-        <v>JONC-ECP-METER001</v>
+        <f t="shared" ref="O30:O37" si="4">$C$3</f>
+        <v>ROUS</v>
       </c>
       <c r="P30" s="41"/>
       <c r="Q30" s="41" t="str">
         <f t="shared" ref="Q30:Q37" si="5">$B$17</f>
-        <v>JONC-OR3</v>
+        <v>ROUS-OR3</v>
       </c>
       <c r="R30" s="41"/>
       <c r="S30" s="41"/>
@@ -3295,13 +3292,13 @@
       <c r="C31" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="E31" s="43">
         <f t="shared" ref="E31:E37" si="6">$C$6</f>
-        <v>42667</v>
+        <v>44713</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>69</v>
@@ -3312,7 +3309,7 @@
       </c>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
-      <c r="K31" s="44"/>
+      <c r="K31" s="43"/>
       <c r="L31" s="41" t="s">
         <v>47</v>
       </c>
@@ -3320,12 +3317,12 @@
       <c r="N31" s="41"/>
       <c r="O31" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>JONC-ECP-METER001</v>
+        <v>ROUS</v>
       </c>
       <c r="P31" s="41"/>
       <c r="Q31" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>JONC-OR3</v>
+        <v>ROUS-OR3</v>
       </c>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
@@ -3350,13 +3347,13 @@
       <c r="C32" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="E32" s="43">
         <f t="shared" si="6"/>
-        <v>42667</v>
+        <v>44713</v>
       </c>
       <c r="F32" s="42" t="s">
         <v>69</v>
@@ -3367,7 +3364,7 @@
       </c>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
-      <c r="K32" s="44"/>
+      <c r="K32" s="43"/>
       <c r="L32" s="41" t="s">
         <v>47</v>
       </c>
@@ -3375,12 +3372,12 @@
       <c r="N32" s="41"/>
       <c r="O32" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>JONC-ECP-METER001</v>
+        <v>ROUS</v>
       </c>
       <c r="P32" s="41"/>
       <c r="Q32" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>JONC-OR3</v>
+        <v>ROUS-OR3</v>
       </c>
       <c r="R32" s="41"/>
       <c r="S32" s="41"/>
@@ -3405,13 +3402,13 @@
       <c r="C33" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="E33" s="43">
         <f t="shared" si="6"/>
-        <v>42667</v>
+        <v>44713</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>69</v>
@@ -3422,7 +3419,7 @@
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
-      <c r="K33" s="44"/>
+      <c r="K33" s="43"/>
       <c r="L33" s="41" t="s">
         <v>47</v>
       </c>
@@ -3430,12 +3427,12 @@
       <c r="N33" s="41"/>
       <c r="O33" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>JONC-ECP-METER001</v>
+        <v>ROUS</v>
       </c>
       <c r="P33" s="41"/>
       <c r="Q33" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>JONC-OR3</v>
+        <v>ROUS-OR3</v>
       </c>
       <c r="R33" s="41"/>
       <c r="S33" s="41"/>
@@ -3460,13 +3457,13 @@
       <c r="C34" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="E34" s="43">
         <f t="shared" si="6"/>
-        <v>42667</v>
+        <v>44713</v>
       </c>
       <c r="F34" s="42" t="s">
         <v>69</v>
@@ -3477,7 +3474,7 @@
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
-      <c r="K34" s="44"/>
+      <c r="K34" s="43"/>
       <c r="L34" s="41" t="s">
         <v>47</v>
       </c>
@@ -3485,12 +3482,12 @@
       <c r="N34" s="41"/>
       <c r="O34" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>JONC-ECP-METER001</v>
+        <v>ROUS</v>
       </c>
       <c r="P34" s="41"/>
       <c r="Q34" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>JONC-OR3</v>
+        <v>ROUS-OR3</v>
       </c>
       <c r="R34" s="41"/>
       <c r="S34" s="41"/>
@@ -3515,13 +3512,13 @@
       <c r="C35" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="E35" s="43">
         <f t="shared" si="6"/>
-        <v>42667</v>
+        <v>44713</v>
       </c>
       <c r="F35" s="42" t="s">
         <v>69</v>
@@ -3532,7 +3529,7 @@
       </c>
       <c r="I35" s="41"/>
       <c r="J35" s="41"/>
-      <c r="K35" s="44"/>
+      <c r="K35" s="43"/>
       <c r="L35" s="41" t="s">
         <v>47</v>
       </c>
@@ -3540,12 +3537,12 @@
       <c r="N35" s="41"/>
       <c r="O35" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>JONC-ECP-METER001</v>
+        <v>ROUS</v>
       </c>
       <c r="P35" s="41"/>
       <c r="Q35" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>JONC-OR3</v>
+        <v>ROUS-OR3</v>
       </c>
       <c r="R35" s="41"/>
       <c r="S35" s="41"/>
@@ -3570,13 +3567,13 @@
       <c r="C36" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="E36" s="43">
         <f t="shared" si="6"/>
-        <v>42667</v>
+        <v>44713</v>
       </c>
       <c r="F36" s="42" t="s">
         <v>69</v>
@@ -3587,7 +3584,7 @@
       </c>
       <c r="I36" s="41"/>
       <c r="J36" s="41"/>
-      <c r="K36" s="44"/>
+      <c r="K36" s="43"/>
       <c r="L36" s="41" t="s">
         <v>47</v>
       </c>
@@ -3595,12 +3592,12 @@
       <c r="N36" s="41"/>
       <c r="O36" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>JONC-ECP-METER001</v>
+        <v>ROUS</v>
       </c>
       <c r="P36" s="41"/>
       <c r="Q36" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>JONC-OR3</v>
+        <v>ROUS-OR3</v>
       </c>
       <c r="R36" s="41"/>
       <c r="S36" s="41"/>
@@ -3625,13 +3622,13 @@
       <c r="C37" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="41" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>kevin.clement@edf-re.fr</v>
       </c>
       <c r="E37" s="43">
         <f t="shared" si="6"/>
-        <v>42667</v>
+        <v>44713</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>69</v>
@@ -3642,7 +3639,7 @@
       </c>
       <c r="I37" s="41"/>
       <c r="J37" s="41"/>
-      <c r="K37" s="44"/>
+      <c r="K37" s="43"/>
       <c r="L37" s="41" t="s">
         <v>47</v>
       </c>
@@ -3650,12 +3647,12 @@
       <c r="N37" s="41"/>
       <c r="O37" s="41" t="str">
         <f t="shared" si="4"/>
-        <v>JONC-ECP-METER001</v>
+        <v>ROUS</v>
       </c>
       <c r="P37" s="41"/>
       <c r="Q37" s="41" t="str">
         <f t="shared" si="5"/>
-        <v>JONC-OR3</v>
+        <v>ROUS-OR3</v>
       </c>
       <c r="R37" s="41"/>
       <c r="S37" s="41"/>
@@ -4081,25 +4078,25 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="53"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="3" t="s">
         <v>11</v>
       </c>
@@ -4111,35 +4108,35 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="61" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="64"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="9" t="s">
         <v>21</v>
       </c>
@@ -4151,19 +4148,19 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="63"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="9"/>
       <c r="M9" s="5"/>
       <c r="N9" s="14" t="s">
@@ -4593,6 +4590,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D786DD4615AD4C929867322DAD61A4" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8a4b7266a4bb969b443a658d01bb7174">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bb0b83e-420c-4a8a-8b8d-6814ce313c87" xmlns:ns3="737540b7-7beb-44e9-ac50-e0c53972ff5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b0685874f74f8bed09a42a659eb7eeb" ns2:_="" ns3:_="">
     <xsd:import namespace="7bb0b83e-420c-4a8a-8b8d-6814ce313c87"/>
@@ -4791,16 +4797,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13559881-8097-4470-9EF5-308222937A90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688C137B-5A34-44AE-9AF9-89553A81D0CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4817,12 +4822,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13559881-8097-4470-9EF5-308222937A90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>